--- a/results/cross_data.xlsx
+++ b/results/cross_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ddesblancs/Documents/SSLMB/Results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ddesblancs/Documents/zeroNoteSamba/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A849D477-5E08-5F4F-8BC1-3C429037327C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E51A1C6-9BC6-C54C-9887-31257AD0183D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{270E8F59-9ED8-044E-8BB4-7F9128426618}"/>
+    <workbookView xWindow="7720" yWindow="500" windowWidth="21080" windowHeight="15800" xr2:uid="{270E8F59-9ED8-044E-8BB4-7F9128426618}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,10 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="77">
-  <si>
-    <t xml:space="preserve">SMC Mirex </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="101">
   <si>
     <t>Experiment</t>
   </si>
@@ -263,6 +260,81 @@
   </si>
   <si>
     <t>CLMR</t>
+  </si>
+  <si>
+    <t>0.567</t>
+  </si>
+  <si>
+    <t>0.024</t>
+  </si>
+  <si>
+    <t>0.321</t>
+  </si>
+  <si>
+    <t>0.334</t>
+  </si>
+  <si>
+    <t>0.662</t>
+  </si>
+  <si>
+    <t>0.038</t>
+  </si>
+  <si>
+    <t>0.703</t>
+  </si>
+  <si>
+    <t>0.035</t>
+  </si>
+  <si>
+    <t>0.381</t>
+  </si>
+  <si>
+    <t>0.015</t>
+  </si>
+  <si>
+    <t>0.736</t>
+  </si>
+  <si>
+    <t>0.522</t>
+  </si>
+  <si>
+    <t>0.540</t>
+  </si>
+  <si>
+    <t>0.795</t>
+  </si>
+  <si>
+    <t>0.824</t>
+  </si>
+  <si>
+    <t>0.017</t>
+  </si>
+  <si>
+    <t>0.477</t>
+  </si>
+  <si>
+    <t>0.012</t>
+  </si>
+  <si>
+    <t>0.764</t>
+  </si>
+  <si>
+    <t>0.582</t>
+  </si>
+  <si>
+    <t>0.013</t>
+  </si>
+  <si>
+    <t>0.604</t>
+  </si>
+  <si>
+    <t>0.789</t>
+  </si>
+  <si>
+    <t>0.827</t>
+  </si>
+  <si>
+    <t>SMC Mirex</t>
   </si>
 </sst>
 </file>
@@ -635,7 +707,7 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -658,334 +730,442 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" t="s">
         <v>76</v>
+      </c>
+      <c r="D3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J3" t="s">
+        <v>81</v>
+      </c>
+      <c r="K3" t="s">
+        <v>82</v>
+      </c>
+      <c r="L3" t="s">
+        <v>83</v>
+      </c>
+      <c r="M3" t="s">
+        <v>84</v>
+      </c>
+      <c r="N3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
+      </c>
+      <c r="C6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H6" t="s">
+        <v>93</v>
+      </c>
+      <c r="I6" t="s">
+        <v>98</v>
+      </c>
+      <c r="J6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" t="s">
+        <v>99</v>
+      </c>
+      <c r="L6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
+      </c>
+      <c r="C9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" t="s">
+        <v>88</v>
+      </c>
+      <c r="H9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" t="s">
+        <v>89</v>
+      </c>
+      <c r="J9" t="s">
+        <v>57</v>
+      </c>
+      <c r="K9" t="s">
+        <v>90</v>
+      </c>
+      <c r="L9" t="s">
+        <v>91</v>
+      </c>
+      <c r="M9" t="s">
+        <v>92</v>
+      </c>
+      <c r="N9" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
